--- a/biology/Botanique/Cyphostemma_leucotrichum/Cyphostemma_leucotrichum.xlsx
+++ b/biology/Botanique/Cyphostemma_leucotrichum/Cyphostemma_leucotrichum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyphostemma leucotrichum (Gilg et M.Brandt) Desc. est une espèce de plantes de la famille des Vitaceae et du genre Cyphostemma, endémique du Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se présente sous la forme d'une herbe dressée pouvant atteindre 1 m de hauteur. Elle est composée d'une tige poilue de 5-7 mm de diamètre, plus ou moins cylindrique, striée et cannelées, de feuilles composées digitées 5-foliolées, pétiole pubescent, folioles sessiles et acuminés. Inflorescences en cyme ombelliforme et multiflores, pédoncule pubescent, cylindrique et strié. Infrutescence; baies ovoïdes globuleuse, densément pubescentes. Graines globuleuses latéralement comprimées.
 </t>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en milieu savanicole, à une altitude pouvant atteindre 1 200 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en milieu savanicole, à une altitude pouvant atteindre 1 200 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, assez rare, l'espèce a été collectée à plusieurs reprises dans la région de l'Adamaoua, notamment près de Ngaoundéré par Ledermann en 1907-1908, par Mildbraed en 1914, par Jacques-Félix en 1938-1940 et par Breteler en 1960-1962[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, assez rare, l'espèce a été collectée à plusieurs reprises dans la région de l'Adamaoua, notamment près de Ngaoundéré par Ledermann en 1907-1908, par Mildbraed en 1914, par Jacques-Félix en 1938-1940 et par Breteler en 1960-1962.
 </t>
         </is>
       </c>
